--- a/MEDIA/_1102_301_會計科目餘額明細.xlsx
+++ b/MEDIA/_1102_301_會計科目餘額明細.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(_1102_301_2020-09-17~2020-09-17)</t>
+          <t>森邦(股)會計科目餘額明細(_1102_301_2020-11-17~2020-11-17)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>67004108</v>
+        <v>34725231</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,21 +442,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>存現                            </t>
+          <t>暫收-竹北遠百勝利 工程款$29500           </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1628088</v>
+        <v>29500</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>68632196</v>
+        <v>34754731</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>108859</t>
+          <t>111556</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -478,38 +478,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新竹延平                                    </t>
+          <t>三重仁義                                    </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14000</v>
+        <v>59141</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>68646196</v>
+        <v>34813872</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1000255</t>
+          <t>1000405</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -519,38 +519,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>神岡昌平	                                   </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t>暫收-清水西寧 許哲原/陳素琴匯 暫收款+保證金      </t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23355</v>
+        <v>90000</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>68669551</v>
+        <v>34903872</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>108838</t>
+          <t>111556</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1000931</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>麗嬰房                                     </t>
+          <t>員林北門	                                   </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -569,29 +569,29 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7641</v>
+        <v>17970</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>68677192</v>
+        <v>34921842</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>108838</t>
+          <t>111565</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1000773</t>
+          <t>1000897</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平鎮莎奇拉雅                                  </t>
+          <t>大雅學府                                    </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,29 +610,29 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13000</v>
+        <v>16342</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>68690192</v>
+        <v>34938184</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>108838</t>
+          <t>111565</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1000658</t>
+          <t>1000056</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>北市五分	                                   </t>
+          <t>高雄六合	                                   </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -651,29 +651,29 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36352</v>
+        <v>28484</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>68726544</v>
+        <v>34966668</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>108838</t>
+          <t>111565</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1000905</t>
+          <t>1000849</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -683,38 +683,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>虎尾復興                                    </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>測試                            </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>41545</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>68726545</v>
+        <v>35008213</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>109263</t>
+          <t>111565</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000594</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>花壇中正                                    </t>
+          <t>竹北福興                                    </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -733,29 +733,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14824</v>
+        <v>16820</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>68741369</v>
+        <v>35025033</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>108820</t>
+          <t>111565</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1000382</t>
+          <t>1000716</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -765,38 +765,38 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>高雄昌富                                    </t>
+          <t>其他                                      </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>                              </t>
+          <t> 10/16藍新科技-手續費(教室課測試)         </t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16872</v>
+        <v>113</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>68758241</v>
+        <v>35025146</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>108820</t>
+          <t>112010</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1000262</t>
+          <t>1000000</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -806,7 +806,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>三重光復                                    </t>
+          <t>竹北文興                                    </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -815,29 +815,29 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>38928</v>
+        <v>10916</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>68797169</v>
+        <v>35036062</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>108820</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1000781</t>
+          <t>1000903</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北市愛國                                    </t>
+          <t>桃園大興                                    </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -856,29 +856,29 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>41198</v>
+        <v>8346</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>68838367</v>
+        <v>35044408</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>108820</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1000433</t>
+          <t>1000941</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>台南長榮                                    </t>
+          <t>員林建國                                    </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -897,29 +897,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23134</v>
+        <v>11294</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>68861501</v>
+        <v>35055702</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>108820</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1000095</t>
+          <t>1000648</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>台中遼寧	                                   </t>
+          <t>台中永安                                    </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -938,29 +938,29 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31190</v>
+        <v>50000</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>68892691</v>
+        <v>35105702</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>108820</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1000870</t>
+          <t>1000785</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -970,38 +970,38 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>台北八德                                    </t>
+          <t>竹北台元	                                   </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14400</v>
+        <v>18432</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>68907091</v>
+        <v>35124134</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1000202</t>
+          <t>1000920</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1011,38 +1011,38 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>頭城新興                                    </t>
+          <t>北市文德                                    </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10000</v>
+        <v>21661</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>68917091</v>
+        <v>35145795</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1000333</t>
+          <t>1000355</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1052,38 +1052,38 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>土城中央                                    </t>
+          <t>新竹南寮                                    </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>18000</v>
+        <v>20404</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>68935091</v>
+        <v>35166199</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1000397</t>
+          <t>1000916</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1093,38 +1093,38 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>林口醒吾                                    </t>
+          <t>新竹鐵道                                    </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>38148</v>
+        <v>20220</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>68973239</v>
+        <v>35186419</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>1000099</t>
+          <t>1000525</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,38 +1134,38 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大溪仁中	                                   </t>
+          <t>高雄城峰	                                   </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50725</v>
+        <v>16009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>69023964</v>
+        <v>35202428</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1000945</t>
+          <t>1000880</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1175,38 +1175,38 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>新店建國                                    </t>
+          <t>北市南海	                                   </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>48283</v>
+        <v>26798</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>69072247</v>
+        <v>35229226</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>1000236</t>
+          <t>1000850</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1216,38 +1216,38 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>頭城新興                                    </t>
+          <t>板橋三民	                                   </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12000</v>
+        <v>57453</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>69084247</v>
+        <v>35286679</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>1000333</t>
+          <t>1000936</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1257,38 +1257,38 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>新豐新興                                    </t>
+          <t>竹北嘉興	                                   </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>100000.1102.301               </t>
+          <t>                              </t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27798</v>
+        <v>13658</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>69112045</v>
+        <v>35300337</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>108863</t>
+          <t>111480</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1000018</t>
+          <t>1000938</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20200917</t>
+          <t>20201117</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1298,29 +1298,357 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>南崁奉化                                    </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>11648</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>35311985</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>1000822</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>台南文南                                    </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>21634</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>35333619</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1000074</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>楠梓翠屏                                    </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>40000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>35373619</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1000772</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>桃園大業	                                   </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>25680</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>35399299</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>1000873</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中壢環東中山                                  </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>15386</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>35414685</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>1000817</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>梧棲中興	                                   </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>19113</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>35433798</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>1000898</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>彰化旭光	                                   </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>30953</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>35464751</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1000947</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>台中遼寧	                                   </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>                              </t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>24440</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>35489191</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>111480</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>1000870</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1102  .301     </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>None</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10906月台北展NO80 李佳蓉 桃園大興 83萬    </t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>830000</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>69942045</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>108859</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10906台北展NO85陳芸伯-頭份光華 工程款      </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>235000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>35724191</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>111556</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
